--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -2,31 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAS01574\Documents\GitHub\AAHA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E027DC8-1143-42E0-8ACF-21132E7A28A8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AE9127-D2CB-46C7-B6E8-682982BB551B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="8685" activeTab="7" xr2:uid="{880A5787-1E95-4275-AB2D-7D22531638A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="8685" firstSheet="2" activeTab="7" xr2:uid="{880A5787-1E95-4275-AB2D-7D22531638A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId9"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" calcMode="autoNoTable"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId10"/>
-    <pivotCache cacheId="17" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="8" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="67">
   <si>
     <t>Rent as % of Income</t>
   </si>
@@ -236,12 +239,847 @@
   <si>
     <t>Row Labels</t>
   </si>
+  <si>
+    <r>
+      <t>10,000</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t>10,000to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t>19,999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20,000</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t>20,000to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t>34,999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>35,000</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t>35,000to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t>49,999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>50,000</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t>50,000to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t>74,999</t>
+    </r>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Less than 30.0 percent</t>
+  </si>
+  <si>
+    <t>Low Income</t>
+  </si>
+  <si>
+    <t>Moderate Income</t>
+  </si>
+  <si>
+    <t>High Income</t>
+  </si>
+  <si>
+    <t>Sum of Less than 30.0 percent</t>
+  </si>
+  <si>
+    <t>Sum of 30.0 to 34.9 percent</t>
+  </si>
+  <si>
+    <t>Sum of 35.0 to 39.9 percent</t>
+  </si>
+  <si>
+    <t>Sum of 40.0 to 49.9 percent</t>
+  </si>
+  <si>
+    <t>Sum of 50.0 percent or more</t>
+  </si>
+  <si>
+    <t>All Units 2014.0</t>
+  </si>
+  <si>
+    <t>All Units 2015.0</t>
+  </si>
+  <si>
+    <t>All Units 2016.0</t>
+  </si>
+  <si>
+    <t>All Units 2017.0</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Less than $100</t>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 149</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>150to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 199</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>200to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 249</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>250to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 299</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>300to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 349</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>350</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>350to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 399</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>400to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 449</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>450</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>450to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 499</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>500to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 549</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>550</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>550to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 599</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>600to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 649</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>650</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>650to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 699</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>700</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>700to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 749</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>750</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>750to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 799</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>800</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>800to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 899</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>900</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>900to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1,000</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,000to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1,249</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1,250</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,250to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1,499</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1,500</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,500to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1,999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2,000</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal"/>
+      </rPr>
+      <t>𝑡𝑜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2,000to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2,499</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,16 +1117,39 @@
       <color rgb="FF000000"/>
       <name val="STIXMathJax_Normal"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="&amp;quot"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="&amp;quot"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -422,11 +1283,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -457,6 +1329,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,7 +2078,736 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[wip.xlsx]Sheet12!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet12!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Less than 30.0 percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet12!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet12!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>157.97907700000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.15565699999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159.405733</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.029936999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BBA-4CBE-9957-5F78F7DD121E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet12!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 30.0 to 34.9 percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet12!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet12!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18.211483999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.626755000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.935314999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.116441999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6BBA-4CBE-9957-5F78F7DD121E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet12!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 35.0 to 39.9 percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet12!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet12!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.990518999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.968672999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.194523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.43201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6BBA-4CBE-9957-5F78F7DD121E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet12!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 40.0 to 49.9 percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet12!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet12!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21.964462999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.494917999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.936021000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.151430000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6BBA-4CBE-9957-5F78F7DD121E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet12!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 50.0 percent or more</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet12!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet12!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>86.854456999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.753998999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.528407000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.270179999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6BBA-4CBE-9957-5F78F7DD121E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1177372751"/>
+        <c:axId val="1176312127"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1177372751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1176312127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1176312127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177372751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1721,20 +3350,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>1047749</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1742,6 +3887,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DE7611-B122-43F4-A2D4-1F877F2655A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1100136</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC481FD-47F7-4E0A-93B1-7595FC5C3DF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,6 +4011,50 @@
     </cacheField>
     <cacheField name="TotalHHs" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12267" maxValue="18644"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexander Novas" refreshedDate="43675.463599884257" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="11" xr:uid="{F458EFE7-1A81-423F-BD54-93F6D49AE071}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H12" sheet="Sheet11"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Rent as % of Income" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="YEAR" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2014" maxValue="2017" count="4">
+        <n v="2014"/>
+        <n v="2015"/>
+        <n v="2016"/>
+        <n v="2017"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Less than 30.0 percent" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.151688999999999" maxValue="96.929761999999997"/>
+    </cacheField>
+    <cacheField name="30.0 to 34.9 percent" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.204574" maxValue="13.386760000000001"/>
+    </cacheField>
+    <cacheField name="35.0 to 39.9 percent" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.76786100000000002" maxValue="11.137867"/>
+    </cacheField>
+    <cacheField name="40.0 to 49.9 percent" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.46762100000000001" maxValue="14.605790000000001"/>
+    </cacheField>
+    <cacheField name="50.0 percent or more" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.7229999999999998E-3" maxValue="71.262097999999995"/>
+    </cacheField>
+    <cacheField name="TotalHHs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="100"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2105,8 +4335,123 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="11">
+  <r>
+    <s v="Low Income"/>
+    <x v="0"/>
+    <n v="14.684517"/>
+    <n v="4.3910229999999997"/>
+    <n v="3.0847910000000001"/>
+    <n v="7.553992"/>
+    <n v="70.285677000000007"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <s v="Moderate Income"/>
+    <x v="0"/>
+    <n v="47.044837999999999"/>
+    <n v="12.229096999999999"/>
+    <n v="11.137867"/>
+    <n v="13.570275000000001"/>
+    <n v="16.017923"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <s v="High Income"/>
+    <x v="0"/>
+    <n v="96.249722000000006"/>
+    <n v="1.591364"/>
+    <n v="0.76786100000000002"/>
+    <n v="0.84019600000000005"/>
+    <n v="0.55085700000000004"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <s v="Low Income"/>
+    <x v="1"/>
+    <n v="14.151688999999999"/>
+    <n v="3.8778060000000001"/>
+    <n v="2.975838"/>
+    <n v="7.7325699999999999"/>
+    <n v="71.262097999999995"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <s v="Moderate Income"/>
+    <x v="1"/>
+    <n v="47.582113"/>
+    <n v="12.544375"/>
+    <n v="10.879747"/>
+    <n v="13.964380999999999"/>
+    <n v="15.029385"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <s v="High Income"/>
+    <x v="1"/>
+    <n v="96.421854999999994"/>
+    <n v="1.204574"/>
+    <n v="1.1130880000000001"/>
+    <n v="0.79796699999999998"/>
+    <n v="0.46251599999999998"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <s v="Low Income"/>
+    <x v="2"/>
+    <n v="14.541945"/>
+    <n v="4.8218030000000001"/>
+    <n v="2.745333"/>
+    <n v="7.956474"/>
+    <n v="69.934444999999997"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <s v="Moderate Income"/>
+    <x v="2"/>
+    <n v="47.934026000000003"/>
+    <n v="12.60201"/>
+    <n v="10.362798"/>
+    <n v="14.511926000000001"/>
+    <n v="14.589238999999999"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <s v="High Income"/>
+    <x v="2"/>
+    <n v="96.929761999999997"/>
+    <n v="1.5115019999999999"/>
+    <n v="1.086392"/>
+    <n v="0.46762100000000001"/>
+    <n v="4.7229999999999998E-3"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <s v="Low Income"/>
+    <x v="3"/>
+    <n v="16.782969999999999"/>
+    <n v="4.7296820000000004"/>
+    <n v="2.4212310000000001"/>
+    <n v="7.5456399999999997"/>
+    <n v="68.520476000000002"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <s v="Moderate Income"/>
+    <x v="3"/>
+    <n v="46.246966999999998"/>
+    <n v="13.386760000000001"/>
+    <n v="11.010778999999999"/>
+    <n v="14.605790000000001"/>
+    <n v="14.749703999999999"/>
+    <n v="100"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C51F21FE-ED8D-4153-BDDD-F7DE2236B764}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C51F21FE-ED8D-4153-BDDD-F7DE2236B764}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2129,7 +4474,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2882CF72-0C96-4287-851D-780F88DE73D8}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2882CF72-0C96-4287-851D-780F88DE73D8}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2186,7 +4531,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{387CA45C-1BF7-4EA2-BAC4-D8ED9CBE9AC9}" name="PivotTable11" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{387CA45C-1BF7-4EA2-BAC4-D8ED9CBE9AC9}" name="PivotTable11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:G7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -2321,6 +4666,133 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B2B8609-C323-41FD-AF0F-A90945B42FC3}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:F8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Sum of Less than 30.0 percent" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 30.0 to 34.9 percent" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 35.0 to 39.9 percent" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 40.0 to 49.9 percent" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 50.0 percent or more" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
@@ -2635,1578 +5107,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BC233B-6D72-49AD-8ED6-A463884BB4AF}">
-  <dimension ref="D1:L32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="4:12">
-      <c r="D1" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="4:12" ht="60">
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="4:12">
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="4:12" ht="58.5">
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3.8501500000000002</v>
-      </c>
-      <c r="F4" s="4">
-        <v>7.1197210000000002</v>
-      </c>
-      <c r="G4" s="4">
-        <v>4.6751820000000004</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3.3917989999999998</v>
-      </c>
-      <c r="I4" s="4">
-        <v>10.639858</v>
-      </c>
-      <c r="J4" s="4">
-        <v>64.566400000000002</v>
-      </c>
-      <c r="K4" s="4">
-        <v>5.7568910000000004</v>
-      </c>
-      <c r="L4" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="4:12" ht="58.5">
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4.0726199999999997</v>
-      </c>
-      <c r="F5" s="4">
-        <v>10.385999</v>
-      </c>
-      <c r="G5" s="4">
-        <v>14.534947000000001</v>
-      </c>
-      <c r="H5" s="4">
-        <v>17.102823999999998</v>
-      </c>
-      <c r="I5" s="4">
-        <v>21.431687</v>
-      </c>
-      <c r="J5" s="4">
-        <v>27.848652999999999</v>
-      </c>
-      <c r="K5" s="4">
-        <v>4.6232689999999996</v>
-      </c>
-      <c r="L5" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="4:12" ht="58.5">
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4">
-        <v>19.078489999999999</v>
-      </c>
-      <c r="F6" s="4">
-        <v>29.073087999999998</v>
-      </c>
-      <c r="G6" s="4">
-        <v>21.988115000000001</v>
-      </c>
-      <c r="H6" s="4">
-        <v>10.712356</v>
-      </c>
-      <c r="I6" s="4">
-        <v>8.6053870000000003</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2.909624</v>
-      </c>
-      <c r="K6" s="4">
-        <v>7.6329399999999996</v>
-      </c>
-      <c r="L6" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="4:12" ht="58.5">
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4">
-        <v>33.556860999999998</v>
-      </c>
-      <c r="F7" s="4">
-        <v>20.076046000000002</v>
-      </c>
-      <c r="G7" s="4">
-        <v>9.3052189999999992</v>
-      </c>
-      <c r="H7" s="4">
-        <v>3.574144</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3.6017969999999999</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1.016246</v>
-      </c>
-      <c r="K7" s="4">
-        <v>28.869685</v>
-      </c>
-      <c r="L7" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12" ht="45">
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2.2391179999999999</v>
-      </c>
-      <c r="F8" s="4">
-        <v>7.2823659999999997</v>
-      </c>
-      <c r="G8" s="4">
-        <v>4.0666849999999997</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2.734375</v>
-      </c>
-      <c r="I8" s="4">
-        <v>4.0318079999999998</v>
-      </c>
-      <c r="J8" s="4">
-        <v>76.813615999999996</v>
-      </c>
-      <c r="K8" s="4">
-        <v>2.8320310000000002</v>
-      </c>
-      <c r="L8" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12">
-      <c r="D9" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="10" spans="4:12" ht="60">
-      <c r="D10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12">
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="4:12" ht="58.5">
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3.5784069999999999</v>
-      </c>
-      <c r="F12" s="4">
-        <v>6.8209569999999999</v>
-      </c>
-      <c r="G12" s="4">
-        <v>4.4455299999999998</v>
-      </c>
-      <c r="H12" s="4">
-        <v>3.5295550000000002</v>
-      </c>
-      <c r="I12" s="4">
-        <v>10.454323</v>
-      </c>
-      <c r="J12" s="4">
-        <v>65.944063999999997</v>
-      </c>
-      <c r="K12" s="4">
-        <v>5.2271619999999999</v>
-      </c>
-      <c r="L12" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="4:12" ht="58.5">
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3.7572410000000001</v>
-      </c>
-      <c r="F13" s="4">
-        <v>9.8537929999999996</v>
-      </c>
-      <c r="G13" s="4">
-        <v>15.216552</v>
-      </c>
-      <c r="H13" s="4">
-        <v>16.805516999999998</v>
-      </c>
-      <c r="I13" s="4">
-        <v>23.155861999999999</v>
-      </c>
-      <c r="J13" s="4">
-        <v>27.128276</v>
-      </c>
-      <c r="K13" s="4">
-        <v>4.0827590000000002</v>
-      </c>
-      <c r="L13" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="4:12" ht="58.5">
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4">
-        <v>19.131297</v>
-      </c>
-      <c r="F14" s="4">
-        <v>30.149508000000001</v>
-      </c>
-      <c r="G14" s="4">
-        <v>19.521008999999999</v>
-      </c>
-      <c r="H14" s="4">
-        <v>11.287464999999999</v>
-      </c>
-      <c r="I14" s="4">
-        <v>8.4815419999999992</v>
-      </c>
-      <c r="J14" s="4">
-        <v>2.9759799999999998</v>
-      </c>
-      <c r="K14" s="4">
-        <v>8.4531989999999997</v>
-      </c>
-      <c r="L14" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12" ht="58.5">
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="4">
-        <v>33.209924999999998</v>
-      </c>
-      <c r="F15" s="4">
-        <v>19.608989000000001</v>
-      </c>
-      <c r="G15" s="4">
-        <v>9.3985450000000004</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3.9036110000000002</v>
-      </c>
-      <c r="I15" s="4">
-        <v>3.1436739999999999</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.78591800000000001</v>
-      </c>
-      <c r="K15" s="4">
-        <v>29.949337</v>
-      </c>
-      <c r="L15" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="4:12" ht="45">
-      <c r="D16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2.3425220000000002</v>
-      </c>
-      <c r="F16" s="4">
-        <v>7.1918300000000004</v>
-      </c>
-      <c r="G16" s="4">
-        <v>3.2138270000000002</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2.3282389999999999</v>
-      </c>
-      <c r="I16" s="4">
-        <v>4.5493499999999996</v>
-      </c>
-      <c r="J16" s="4">
-        <v>77.481787999999995</v>
-      </c>
-      <c r="K16" s="4">
-        <v>2.8924439999999998</v>
-      </c>
-      <c r="L16" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12">
-      <c r="D17" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" ht="60">
-      <c r="D18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12">
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="4:12" ht="58.5">
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4.8573449999999996</v>
-      </c>
-      <c r="F20" s="4">
-        <v>7.0325389999999999</v>
-      </c>
-      <c r="G20" s="4">
-        <v>4.7158689999999996</v>
-      </c>
-      <c r="H20" s="4">
-        <v>3.6842730000000001</v>
-      </c>
-      <c r="I20" s="4">
-        <v>10.587126</v>
-      </c>
-      <c r="J20" s="4">
-        <v>64.389295000000004</v>
-      </c>
-      <c r="K20" s="4">
-        <v>4.7335529999999997</v>
-      </c>
-      <c r="L20" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" ht="58.5">
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3.3147389999999999</v>
-      </c>
-      <c r="F21" s="4">
-        <v>10.566402</v>
-      </c>
-      <c r="G21" s="4">
-        <v>15.350783</v>
-      </c>
-      <c r="H21" s="4">
-        <v>15.0236</v>
-      </c>
-      <c r="I21" s="4">
-        <v>24.581634999999999</v>
-      </c>
-      <c r="J21" s="4">
-        <v>26.523278000000001</v>
-      </c>
-      <c r="K21" s="4">
-        <v>4.6395619999999997</v>
-      </c>
-      <c r="L21" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" ht="58.5">
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="4">
-        <v>17.431256000000001</v>
-      </c>
-      <c r="F22" s="4">
-        <v>28.824097999999999</v>
-      </c>
-      <c r="G22" s="4">
-        <v>20.450462999999999</v>
-      </c>
-      <c r="H22" s="4">
-        <v>11.655381999999999</v>
-      </c>
-      <c r="I22" s="4">
-        <v>9.7692409999999992</v>
-      </c>
-      <c r="J22" s="4">
-        <v>4.8293489999999997</v>
-      </c>
-      <c r="K22" s="4">
-        <v>7.0402100000000001</v>
-      </c>
-      <c r="L22" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" ht="58.5">
-      <c r="D23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="4">
-        <v>32.778426000000003</v>
-      </c>
-      <c r="F23" s="4">
-        <v>21.880951</v>
-      </c>
-      <c r="G23" s="4">
-        <v>9.4538980000000006</v>
-      </c>
-      <c r="H23" s="4">
-        <v>5.0248790000000003</v>
-      </c>
-      <c r="I23" s="4">
-        <v>2.979298</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0.92143299999999995</v>
-      </c>
-      <c r="K23" s="4">
-        <v>26.961116000000001</v>
-      </c>
-      <c r="L23" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" ht="45">
-      <c r="D24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2.1318869999999999</v>
-      </c>
-      <c r="F24" s="4">
-        <v>6.3498130000000002</v>
-      </c>
-      <c r="G24" s="4">
-        <v>4.9591200000000004</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1.5282340000000001</v>
-      </c>
-      <c r="I24" s="4">
-        <v>4.5464969999999996</v>
-      </c>
-      <c r="J24" s="4">
-        <v>77.122335000000007</v>
-      </c>
-      <c r="K24" s="4">
-        <v>3.3621150000000002</v>
-      </c>
-      <c r="L24" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12">
-      <c r="D25" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="26" spans="4:12" ht="60">
-      <c r="D26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12">
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="4:12" ht="58.5">
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5.4758800000000001</v>
-      </c>
-      <c r="F28" s="4">
-        <v>7.7047249999999998</v>
-      </c>
-      <c r="G28" s="4">
-        <v>5.0040360000000002</v>
-      </c>
-      <c r="H28" s="4">
-        <v>2.9055689999999998</v>
-      </c>
-      <c r="I28" s="4">
-        <v>9.5672689999999996</v>
-      </c>
-      <c r="J28" s="4">
-        <v>63.624510999999998</v>
-      </c>
-      <c r="K28" s="4">
-        <v>5.7180109999999997</v>
-      </c>
-      <c r="L28" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="4:12" ht="58.5">
-      <c r="D29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="4">
-        <v>3.6035550000000001</v>
-      </c>
-      <c r="F29" s="4">
-        <v>8.8707060000000002</v>
-      </c>
-      <c r="G29" s="4">
-        <v>15.319172</v>
-      </c>
-      <c r="H29" s="4">
-        <v>14.863986000000001</v>
-      </c>
-      <c r="I29" s="4">
-        <v>24.666739</v>
-      </c>
-      <c r="J29" s="4">
-        <v>27.408691999999999</v>
-      </c>
-      <c r="K29" s="4">
-        <v>5.2671510000000001</v>
-      </c>
-      <c r="L29" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="4:12" ht="58.5">
-      <c r="D30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="4">
-        <v>15.641559000000001</v>
-      </c>
-      <c r="F30" s="4">
-        <v>27.406265000000001</v>
-      </c>
-      <c r="G30" s="4">
-        <v>21.275739000000002</v>
-      </c>
-      <c r="H30" s="4">
-        <v>12.468978</v>
-      </c>
-      <c r="I30" s="4">
-        <v>10.463478</v>
-      </c>
-      <c r="J30" s="4">
-        <v>5.426253</v>
-      </c>
-      <c r="K30" s="4">
-        <v>7.3177279999999998</v>
-      </c>
-      <c r="L30" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="4:12" ht="58.5">
-      <c r="D31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="4">
-        <v>30.452190000000002</v>
-      </c>
-      <c r="F31" s="4">
-        <v>22.550636000000001</v>
-      </c>
-      <c r="G31" s="4">
-        <v>11.287094</v>
-      </c>
-      <c r="H31" s="4">
-        <v>6.8240699999999999</v>
-      </c>
-      <c r="I31" s="4">
-        <v>3.6740460000000001</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0.99505399999999999</v>
-      </c>
-      <c r="K31" s="4">
-        <v>24.216909999999999</v>
-      </c>
-      <c r="L31" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12" ht="45">
-      <c r="D32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="4">
-        <v>3.431972</v>
-      </c>
-      <c r="F32" s="4">
-        <v>7.3123009999999997</v>
-      </c>
-      <c r="G32" s="4">
-        <v>4.3694459999999999</v>
-      </c>
-      <c r="H32" s="4">
-        <v>1.7852779999999999</v>
-      </c>
-      <c r="I32" s="4">
-        <v>4.8911709999999999</v>
-      </c>
-      <c r="J32" s="4">
-        <v>74.94905</v>
-      </c>
-      <c r="K32" s="4">
-        <v>3.2607810000000002</v>
-      </c>
-      <c r="L32" s="4">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B478092-CC6E-4F19-941B-3E15744D6F85}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="60">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="58.5">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3.8501500000000002</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7.1197210000000002</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4.6751820000000004</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3.3917989999999998</v>
-      </c>
-      <c r="F4" s="4">
-        <v>10.639858</v>
-      </c>
-      <c r="G4" s="4">
-        <v>64.566400000000002</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5.7568910000000004</v>
-      </c>
-      <c r="I4" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="58.5">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4.0726199999999997</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10.385999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>14.534947000000001</v>
-      </c>
-      <c r="E5" s="4">
-        <v>17.102823999999998</v>
-      </c>
-      <c r="F5" s="4">
-        <v>21.431687</v>
-      </c>
-      <c r="G5" s="4">
-        <v>27.848652999999999</v>
-      </c>
-      <c r="H5" s="4">
-        <v>4.6232689999999996</v>
-      </c>
-      <c r="I5" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="58.5">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4">
-        <v>19.078489999999999</v>
-      </c>
-      <c r="C6" s="4">
-        <v>29.073087999999998</v>
-      </c>
-      <c r="D6" s="4">
-        <v>21.988115000000001</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10.712356</v>
-      </c>
-      <c r="F6" s="4">
-        <v>8.6053870000000003</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2.909624</v>
-      </c>
-      <c r="H6" s="4">
-        <v>7.6329399999999996</v>
-      </c>
-      <c r="I6" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="58.5">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
-        <v>33.556860999999998</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20.076046000000002</v>
-      </c>
-      <c r="D7" s="4">
-        <v>9.3052189999999992</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3.574144</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3.6017969999999999</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1.016246</v>
-      </c>
-      <c r="H7" s="4">
-        <v>28.869685</v>
-      </c>
-      <c r="I7" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="45">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2.2391179999999999</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7.2823659999999997</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4.0666849999999997</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2.734375</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4.0318079999999998</v>
-      </c>
-      <c r="G8" s="4">
-        <v>76.813615999999996</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2.8320310000000002</v>
-      </c>
-      <c r="I8" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="58.5">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3.5784069999999999</v>
-      </c>
-      <c r="C12" s="4">
-        <v>6.8209569999999999</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4.4455299999999998</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3.5295550000000002</v>
-      </c>
-      <c r="F12" s="4">
-        <v>10.454323</v>
-      </c>
-      <c r="G12" s="4">
-        <v>65.944063999999997</v>
-      </c>
-      <c r="H12" s="4">
-        <v>5.2271619999999999</v>
-      </c>
-      <c r="I12" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="58.5">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>3.7572410000000001</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9.8537929999999996</v>
-      </c>
-      <c r="D13" s="4">
-        <v>15.216552</v>
-      </c>
-      <c r="E13" s="4">
-        <v>16.805516999999998</v>
-      </c>
-      <c r="F13" s="4">
-        <v>23.155861999999999</v>
-      </c>
-      <c r="G13" s="4">
-        <v>27.128276</v>
-      </c>
-      <c r="H13" s="4">
-        <v>4.0827590000000002</v>
-      </c>
-      <c r="I13" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="58.5">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>19.131297</v>
-      </c>
-      <c r="C14" s="4">
-        <v>30.149508000000001</v>
-      </c>
-      <c r="D14" s="4">
-        <v>19.521008999999999</v>
-      </c>
-      <c r="E14" s="4">
-        <v>11.287464999999999</v>
-      </c>
-      <c r="F14" s="4">
-        <v>8.4815419999999992</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2.9759799999999998</v>
-      </c>
-      <c r="H14" s="4">
-        <v>8.4531989999999997</v>
-      </c>
-      <c r="I14" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="58.5">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
-        <v>33.209924999999998</v>
-      </c>
-      <c r="C15" s="4">
-        <v>19.608989000000001</v>
-      </c>
-      <c r="D15" s="4">
-        <v>9.3985450000000004</v>
-      </c>
-      <c r="E15" s="4">
-        <v>3.9036110000000002</v>
-      </c>
-      <c r="F15" s="4">
-        <v>3.1436739999999999</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.78591800000000001</v>
-      </c>
-      <c r="H15" s="4">
-        <v>29.949337</v>
-      </c>
-      <c r="I15" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="45">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2.3425220000000002</v>
-      </c>
-      <c r="C16" s="4">
-        <v>7.1918300000000004</v>
-      </c>
-      <c r="D16" s="4">
-        <v>3.2138270000000002</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2.3282389999999999</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4.5493499999999996</v>
-      </c>
-      <c r="G16" s="4">
-        <v>77.481787999999995</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2.8924439999999998</v>
-      </c>
-      <c r="I16" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="60">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="58.5">
-      <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4">
-        <v>4.8573449999999996</v>
-      </c>
-      <c r="C20" s="4">
-        <v>7.0325389999999999</v>
-      </c>
-      <c r="D20" s="4">
-        <v>4.7158689999999996</v>
-      </c>
-      <c r="E20" s="4">
-        <v>3.6842730000000001</v>
-      </c>
-      <c r="F20" s="4">
-        <v>10.587126</v>
-      </c>
-      <c r="G20" s="4">
-        <v>64.389295000000004</v>
-      </c>
-      <c r="H20" s="4">
-        <v>4.7335529999999997</v>
-      </c>
-      <c r="I20" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="58.5">
-      <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4">
-        <v>3.3147389999999999</v>
-      </c>
-      <c r="C21" s="4">
-        <v>10.566402</v>
-      </c>
-      <c r="D21" s="4">
-        <v>15.350783</v>
-      </c>
-      <c r="E21" s="4">
-        <v>15.0236</v>
-      </c>
-      <c r="F21" s="4">
-        <v>24.581634999999999</v>
-      </c>
-      <c r="G21" s="4">
-        <v>26.523278000000001</v>
-      </c>
-      <c r="H21" s="4">
-        <v>4.6395619999999997</v>
-      </c>
-      <c r="I21" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="58.5">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4">
-        <v>17.431256000000001</v>
-      </c>
-      <c r="C22" s="4">
-        <v>28.824097999999999</v>
-      </c>
-      <c r="D22" s="4">
-        <v>20.450462999999999</v>
-      </c>
-      <c r="E22" s="4">
-        <v>11.655381999999999</v>
-      </c>
-      <c r="F22" s="4">
-        <v>9.7692409999999992</v>
-      </c>
-      <c r="G22" s="4">
-        <v>4.8293489999999997</v>
-      </c>
-      <c r="H22" s="4">
-        <v>7.0402100000000001</v>
-      </c>
-      <c r="I22" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="58.5">
-      <c r="A23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="4">
-        <v>32.778426000000003</v>
-      </c>
-      <c r="C23" s="4">
-        <v>21.880951</v>
-      </c>
-      <c r="D23" s="4">
-        <v>9.4538980000000006</v>
-      </c>
-      <c r="E23" s="4">
-        <v>5.0248790000000003</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2.979298</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.92143299999999995</v>
-      </c>
-      <c r="H23" s="4">
-        <v>26.961116000000001</v>
-      </c>
-      <c r="I23" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="4">
-        <v>2.1318869999999999</v>
-      </c>
-      <c r="C24" s="4">
-        <v>6.3498130000000002</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4.9591200000000004</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1.5282340000000001</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4.5464969999999996</v>
-      </c>
-      <c r="G24" s="4">
-        <v>77.122335000000007</v>
-      </c>
-      <c r="H24" s="4">
-        <v>3.3621150000000002</v>
-      </c>
-      <c r="I24" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="60">
-      <c r="A26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="58.5">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="4">
-        <v>5.4758800000000001</v>
-      </c>
-      <c r="C28" s="4">
-        <v>7.7047249999999998</v>
-      </c>
-      <c r="D28" s="4">
-        <v>5.0040360000000002</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2.9055689999999998</v>
-      </c>
-      <c r="F28" s="4">
-        <v>9.5672689999999996</v>
-      </c>
-      <c r="G28" s="4">
-        <v>63.624510999999998</v>
-      </c>
-      <c r="H28" s="4">
-        <v>5.7180109999999997</v>
-      </c>
-      <c r="I28" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="58.5">
-      <c r="A29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="4">
-        <v>3.6035550000000001</v>
-      </c>
-      <c r="C29" s="4">
-        <v>8.8707060000000002</v>
-      </c>
-      <c r="D29" s="4">
-        <v>15.319172</v>
-      </c>
-      <c r="E29" s="4">
-        <v>14.863986000000001</v>
-      </c>
-      <c r="F29" s="4">
-        <v>24.666739</v>
-      </c>
-      <c r="G29" s="4">
-        <v>27.408691999999999</v>
-      </c>
-      <c r="H29" s="4">
-        <v>5.2671510000000001</v>
-      </c>
-      <c r="I29" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="58.5">
-      <c r="A30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="4">
-        <v>15.641559000000001</v>
-      </c>
-      <c r="C30" s="4">
-        <v>27.406265000000001</v>
-      </c>
-      <c r="D30" s="4">
-        <v>21.275739000000002</v>
-      </c>
-      <c r="E30" s="4">
-        <v>12.468978</v>
-      </c>
-      <c r="F30" s="4">
-        <v>10.463478</v>
-      </c>
-      <c r="G30" s="4">
-        <v>5.426253</v>
-      </c>
-      <c r="H30" s="4">
-        <v>7.3177279999999998</v>
-      </c>
-      <c r="I30" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="58.5">
-      <c r="A31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="4">
-        <v>30.452190000000002</v>
-      </c>
-      <c r="C31" s="4">
-        <v>22.550636000000001</v>
-      </c>
-      <c r="D31" s="4">
-        <v>11.287094</v>
-      </c>
-      <c r="E31" s="4">
-        <v>6.8240699999999999</v>
-      </c>
-      <c r="F31" s="4">
-        <v>3.6740460000000001</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.99505399999999999</v>
-      </c>
-      <c r="H31" s="4">
-        <v>24.216909999999999</v>
-      </c>
-      <c r="I31" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="45">
-      <c r="A32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="4">
-        <v>3.431972</v>
-      </c>
-      <c r="C32" s="4">
-        <v>7.3123009999999997</v>
-      </c>
-      <c r="D32" s="4">
-        <v>4.3694459999999999</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1.7852779999999999</v>
-      </c>
-      <c r="F32" s="4">
-        <v>4.8911709999999999</v>
-      </c>
-      <c r="G32" s="4">
-        <v>74.94905</v>
-      </c>
-      <c r="H32" s="4">
-        <v>3.2607810000000002</v>
-      </c>
-      <c r="I32" s="4">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6950CD56-DEA6-41A7-AAD8-588D642C04E8}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4818,8 +5720,485 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BA38BA-A079-44BB-9DE8-FD930DEE5AD4}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A3:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="15">
+        <v>157.97907700000002</v>
+      </c>
+      <c r="C4" s="15">
+        <v>18.211483999999999</v>
+      </c>
+      <c r="D4" s="15">
+        <v>14.990518999999999</v>
+      </c>
+      <c r="E4" s="15">
+        <v>21.964462999999999</v>
+      </c>
+      <c r="F4" s="15">
+        <v>86.854456999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="15">
+        <v>158.15565699999999</v>
+      </c>
+      <c r="C5" s="15">
+        <v>17.626755000000003</v>
+      </c>
+      <c r="D5" s="15">
+        <v>14.968672999999999</v>
+      </c>
+      <c r="E5" s="15">
+        <v>22.494917999999998</v>
+      </c>
+      <c r="F5" s="15">
+        <v>86.753998999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="15">
+        <v>159.405733</v>
+      </c>
+      <c r="C6" s="15">
+        <v>18.935314999999999</v>
+      </c>
+      <c r="D6" s="15">
+        <v>14.194523</v>
+      </c>
+      <c r="E6" s="15">
+        <v>22.936021000000004</v>
+      </c>
+      <c r="F6" s="15">
+        <v>84.528407000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="15">
+        <v>63.029936999999997</v>
+      </c>
+      <c r="C7" s="15">
+        <v>18.116441999999999</v>
+      </c>
+      <c r="D7" s="15">
+        <v>13.43201</v>
+      </c>
+      <c r="E7" s="15">
+        <v>22.151430000000001</v>
+      </c>
+      <c r="F7" s="15">
+        <v>83.270179999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="15">
+        <v>538.57040399999994</v>
+      </c>
+      <c r="C8" s="15">
+        <v>72.889995999999996</v>
+      </c>
+      <c r="D8" s="15">
+        <v>57.585724999999996</v>
+      </c>
+      <c r="E8" s="15">
+        <v>89.546831999999995</v>
+      </c>
+      <c r="F8" s="15">
+        <v>341.40704299999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0184437-515C-4CBA-ACFF-9704029C6661}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="36">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C2" s="20">
+        <v>14.684517</v>
+      </c>
+      <c r="D2" s="20">
+        <v>4.3910229999999997</v>
+      </c>
+      <c r="E2" s="20">
+        <v>3.0847910000000001</v>
+      </c>
+      <c r="F2" s="20">
+        <v>7.553992</v>
+      </c>
+      <c r="G2" s="20">
+        <v>70.285677000000007</v>
+      </c>
+      <c r="H2" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2014</v>
+      </c>
+      <c r="C3" s="22">
+        <v>47.044837999999999</v>
+      </c>
+      <c r="D3" s="22">
+        <v>12.229096999999999</v>
+      </c>
+      <c r="E3" s="22">
+        <v>11.137867</v>
+      </c>
+      <c r="F3" s="22">
+        <v>13.570275000000001</v>
+      </c>
+      <c r="G3" s="22">
+        <v>16.017923</v>
+      </c>
+      <c r="H3" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C4" s="20">
+        <v>96.249722000000006</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1.591364</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.76786100000000002</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0.84019600000000005</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0.55085700000000004</v>
+      </c>
+      <c r="H4" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="22">
+        <v>2015</v>
+      </c>
+      <c r="C5" s="22">
+        <v>14.151688999999999</v>
+      </c>
+      <c r="D5" s="22">
+        <v>3.8778060000000001</v>
+      </c>
+      <c r="E5" s="22">
+        <v>2.975838</v>
+      </c>
+      <c r="F5" s="22">
+        <v>7.7325699999999999</v>
+      </c>
+      <c r="G5" s="22">
+        <v>71.262097999999995</v>
+      </c>
+      <c r="H5" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="20">
+        <v>2015</v>
+      </c>
+      <c r="C6" s="20">
+        <v>47.582113</v>
+      </c>
+      <c r="D6" s="20">
+        <v>12.544375</v>
+      </c>
+      <c r="E6" s="20">
+        <v>10.879747</v>
+      </c>
+      <c r="F6" s="20">
+        <v>13.964380999999999</v>
+      </c>
+      <c r="G6" s="20">
+        <v>15.029385</v>
+      </c>
+      <c r="H6" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="22">
+        <v>2015</v>
+      </c>
+      <c r="C7" s="22">
+        <v>96.421854999999994</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1.204574</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1.1130880000000001</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.79796699999999998</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0.46251599999999998</v>
+      </c>
+      <c r="H7" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="20">
+        <v>2016</v>
+      </c>
+      <c r="C8" s="20">
+        <v>14.541945</v>
+      </c>
+      <c r="D8" s="20">
+        <v>4.8218030000000001</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2.745333</v>
+      </c>
+      <c r="F8" s="20">
+        <v>7.956474</v>
+      </c>
+      <c r="G8" s="20">
+        <v>69.934444999999997</v>
+      </c>
+      <c r="H8" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="22">
+        <v>2016</v>
+      </c>
+      <c r="C9" s="22">
+        <v>47.934026000000003</v>
+      </c>
+      <c r="D9" s="22">
+        <v>12.60201</v>
+      </c>
+      <c r="E9" s="22">
+        <v>10.362798</v>
+      </c>
+      <c r="F9" s="22">
+        <v>14.511926000000001</v>
+      </c>
+      <c r="G9" s="22">
+        <v>14.589238999999999</v>
+      </c>
+      <c r="H9" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="20">
+        <v>2016</v>
+      </c>
+      <c r="C10" s="20">
+        <v>96.929761999999997</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1.5115019999999999</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1.086392</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.46762100000000001</v>
+      </c>
+      <c r="G10" s="20">
+        <v>4.7229999999999998E-3</v>
+      </c>
+      <c r="H10" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="22">
+        <v>2017</v>
+      </c>
+      <c r="C11" s="22">
+        <v>16.782969999999999</v>
+      </c>
+      <c r="D11" s="22">
+        <v>4.7296820000000004</v>
+      </c>
+      <c r="E11" s="22">
+        <v>2.4212310000000001</v>
+      </c>
+      <c r="F11" s="22">
+        <v>7.5456399999999997</v>
+      </c>
+      <c r="G11" s="22">
+        <v>68.520476000000002</v>
+      </c>
+      <c r="H11" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="20">
+        <v>2017</v>
+      </c>
+      <c r="C12" s="20">
+        <v>46.246966999999998</v>
+      </c>
+      <c r="D12" s="20">
+        <v>13.386760000000001</v>
+      </c>
+      <c r="E12" s="20">
+        <v>11.010778999999999</v>
+      </c>
+      <c r="F12" s="20">
+        <v>14.605790000000001</v>
+      </c>
+      <c r="G12" s="20">
+        <v>14.749703999999999</v>
+      </c>
+      <c r="H12" s="20">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48F5933-C0C6-4766-BDE2-12D034C66517}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5602,8 +6981,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D9A08C-9758-4777-9AFA-941AB63924E8}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5707,8 +7087,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5815C6-126B-4079-B0AF-ECC1E737ECC5}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5770,8 +7151,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA026671-77FF-41CF-8B04-B990D599E7A4}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6208,11 +7590,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA811BB-CA9B-48CB-A288-4EAEE743E77A}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="L18:M18"/>
     </sheetView>
   </sheetViews>
@@ -6376,8 +7759,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB6771E-0C56-4BBA-A59C-C30AEC1CD2FF}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C1048565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6629,4 +8013,973 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C344B5A-4D28-4CF5-9888-2DE12D739AE0}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="36">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" ht="40.5">
+      <c r="A3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="20">
+        <v>882</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1241</v>
+      </c>
+      <c r="D3" s="24">
+        <v>806</v>
+      </c>
+      <c r="E3" s="24">
+        <v>468</v>
+      </c>
+      <c r="F3" s="24">
+        <v>1541</v>
+      </c>
+      <c r="G3" s="24">
+        <v>10248</v>
+      </c>
+      <c r="H3" s="20">
+        <v>921</v>
+      </c>
+      <c r="I3" s="20">
+        <v>16107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="40.5">
+      <c r="A4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="22">
+        <v>665</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1637</v>
+      </c>
+      <c r="D4" s="24">
+        <v>2827</v>
+      </c>
+      <c r="E4" s="24">
+        <v>2743</v>
+      </c>
+      <c r="F4" s="24">
+        <v>4552</v>
+      </c>
+      <c r="G4" s="24">
+        <v>5058</v>
+      </c>
+      <c r="H4" s="22">
+        <v>972</v>
+      </c>
+      <c r="I4" s="22">
+        <v>18454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="40.5">
+      <c r="A5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="20">
+        <v>2332</v>
+      </c>
+      <c r="C5" s="20">
+        <v>4086</v>
+      </c>
+      <c r="D5" s="24">
+        <v>3172</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1859</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1560</v>
+      </c>
+      <c r="G5" s="24">
+        <v>809</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1091</v>
+      </c>
+      <c r="I5" s="20">
+        <v>14909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="40.5">
+      <c r="A6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="22">
+        <v>5172</v>
+      </c>
+      <c r="C6" s="22">
+        <v>3830</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1917</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1159</v>
+      </c>
+      <c r="F6" s="24">
+        <v>624</v>
+      </c>
+      <c r="G6" s="24">
+        <v>169</v>
+      </c>
+      <c r="H6" s="22">
+        <v>4113</v>
+      </c>
+      <c r="I6" s="22">
+        <v>16984</v>
+      </c>
+      <c r="O6">
+        <f>46000+31000+24000</f>
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="36">
+      <c r="A7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="20">
+        <v>421</v>
+      </c>
+      <c r="C7" s="20">
+        <v>897</v>
+      </c>
+      <c r="D7" s="24">
+        <v>536</v>
+      </c>
+      <c r="E7" s="24">
+        <v>219</v>
+      </c>
+      <c r="F7" s="24">
+        <v>600</v>
+      </c>
+      <c r="G7" s="24">
+        <v>9194</v>
+      </c>
+      <c r="H7" s="20">
+        <v>400</v>
+      </c>
+      <c r="I7" s="20">
+        <v>12267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="45">
+      <c r="A11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2817</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2689</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2639</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2579</v>
+      </c>
+      <c r="P13">
+        <f>7600-3100</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1671</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1704</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1692</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2257</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2158</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1963</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2757</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2423</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2874</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1512</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1225</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1533</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1238</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1251</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1310</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1539</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1530</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1288</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1808</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1880</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1946</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3056</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3369</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2408</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5472</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4844</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4059</v>
+      </c>
+      <c r="K22" s="4">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="4">
+        <v>6602</v>
+      </c>
+      <c r="C23" s="4">
+        <v>6540</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4921</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="4">
+        <v>5722</v>
+      </c>
+      <c r="C24" s="4">
+        <v>6234</v>
+      </c>
+      <c r="E24" s="4">
+        <v>6072</v>
+      </c>
+      <c r="K24" s="4">
+        <v>6177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="4">
+        <v>7574</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7697</v>
+      </c>
+      <c r="E25" s="4">
+        <v>6298</v>
+      </c>
+      <c r="K25" s="4">
+        <v>7286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6373</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6758</v>
+      </c>
+      <c r="E26" s="4">
+        <v>6056</v>
+      </c>
+      <c r="K26" s="4">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="4">
+        <v>7012</v>
+      </c>
+      <c r="C27" s="4">
+        <v>7165</v>
+      </c>
+      <c r="E27" s="4">
+        <v>6080</v>
+      </c>
+      <c r="K27" s="4">
+        <v>7354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="4">
+        <v>12533</v>
+      </c>
+      <c r="C28" s="4">
+        <v>12530</v>
+      </c>
+      <c r="E28" s="4">
+        <v>11489</v>
+      </c>
+      <c r="K28" s="4">
+        <v>11889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="4">
+        <v>10087</v>
+      </c>
+      <c r="C29" s="4">
+        <v>9263</v>
+      </c>
+      <c r="E29" s="4">
+        <v>9040</v>
+      </c>
+      <c r="K29" s="4">
+        <v>9932</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="4">
+        <v>16964</v>
+      </c>
+      <c r="C30" s="4">
+        <v>17226</v>
+      </c>
+      <c r="E30" s="4">
+        <v>19006</v>
+      </c>
+      <c r="K30" s="4">
+        <v>17459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="4">
+        <v>8500</v>
+      </c>
+      <c r="C31" s="4">
+        <v>9272</v>
+      </c>
+      <c r="E31" s="4">
+        <v>11719</v>
+      </c>
+      <c r="K31" s="4">
+        <v>10330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="4">
+        <v>5951</v>
+      </c>
+      <c r="C32" s="4">
+        <v>6733</v>
+      </c>
+      <c r="E32" s="4">
+        <v>11462</v>
+      </c>
+      <c r="K32" s="4">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2834</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1588</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2807</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1956</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4557F5-DAD8-42B3-9ED3-EAA999DE60B1}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="36">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="24">
+      <c r="A3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C3" s="20">
+        <v>4508</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1348</v>
+      </c>
+      <c r="E3" s="20">
+        <v>947</v>
+      </c>
+      <c r="F3" s="20">
+        <v>2319</v>
+      </c>
+      <c r="G3" s="20">
+        <v>21577</v>
+      </c>
+      <c r="H3" s="20">
+        <v>30699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24">
+      <c r="A4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="22">
+        <v>2014</v>
+      </c>
+      <c r="C4" s="22">
+        <v>15434</v>
+      </c>
+      <c r="D4" s="22">
+        <v>4012</v>
+      </c>
+      <c r="E4" s="22">
+        <v>3654</v>
+      </c>
+      <c r="F4" s="22">
+        <v>4452</v>
+      </c>
+      <c r="G4" s="22">
+        <v>5255</v>
+      </c>
+      <c r="H4" s="22">
+        <v>32807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24">
+      <c r="A5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C5" s="20">
+        <v>17298</v>
+      </c>
+      <c r="D5" s="20">
+        <v>286</v>
+      </c>
+      <c r="E5" s="20">
+        <v>138</v>
+      </c>
+      <c r="F5" s="20">
+        <v>151</v>
+      </c>
+      <c r="G5" s="20">
+        <v>99</v>
+      </c>
+      <c r="H5" s="20">
+        <v>17972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24">
+      <c r="A6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="22">
+        <v>2015</v>
+      </c>
+      <c r="C6" s="22">
+        <v>4299</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1178</v>
+      </c>
+      <c r="E6" s="22">
+        <v>904</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2349</v>
+      </c>
+      <c r="G6" s="22">
+        <v>21648</v>
+      </c>
+      <c r="H6" s="22">
+        <v>30378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24">
+      <c r="A7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="20">
+        <v>2015</v>
+      </c>
+      <c r="C7" s="20">
+        <v>15950</v>
+      </c>
+      <c r="D7" s="20">
+        <v>4205</v>
+      </c>
+      <c r="E7" s="20">
+        <v>3647</v>
+      </c>
+      <c r="F7" s="20">
+        <v>4681</v>
+      </c>
+      <c r="G7" s="20">
+        <v>5038</v>
+      </c>
+      <c r="H7" s="20">
+        <v>33521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24">
+      <c r="A8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="22">
+        <v>2015</v>
+      </c>
+      <c r="C8" s="22">
+        <v>18971</v>
+      </c>
+      <c r="D8" s="22">
+        <v>237</v>
+      </c>
+      <c r="E8" s="22">
+        <v>219</v>
+      </c>
+      <c r="F8" s="22">
+        <v>157</v>
+      </c>
+      <c r="G8" s="22">
+        <v>91</v>
+      </c>
+      <c r="H8" s="22">
+        <v>19675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24">
+      <c r="A9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="20">
+        <v>2016</v>
+      </c>
+      <c r="C9" s="20">
+        <v>4370</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1449</v>
+      </c>
+      <c r="E9" s="20">
+        <v>825</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2391</v>
+      </c>
+      <c r="G9" s="20">
+        <v>21016</v>
+      </c>
+      <c r="H9" s="20">
+        <v>30051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24">
+      <c r="A10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="22">
+        <v>2016</v>
+      </c>
+      <c r="C10" s="22">
+        <v>16740</v>
+      </c>
+      <c r="D10" s="22">
+        <v>4401</v>
+      </c>
+      <c r="E10" s="22">
+        <v>3619</v>
+      </c>
+      <c r="F10" s="22">
+        <v>5068</v>
+      </c>
+      <c r="G10" s="22">
+        <v>5095</v>
+      </c>
+      <c r="H10" s="22">
+        <v>34923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24">
+      <c r="A11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="20">
+        <v>2016</v>
+      </c>
+      <c r="C11" s="20">
+        <v>20521</v>
+      </c>
+      <c r="D11" s="20">
+        <v>320</v>
+      </c>
+      <c r="E11" s="20">
+        <v>230</v>
+      </c>
+      <c r="F11" s="20">
+        <v>99</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20">
+        <v>21171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24">
+      <c r="A12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="22">
+        <v>2017</v>
+      </c>
+      <c r="C12" s="22">
+        <v>4762</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1342</v>
+      </c>
+      <c r="E12" s="22">
+        <v>687</v>
+      </c>
+      <c r="F12" s="22">
+        <v>2141</v>
+      </c>
+      <c r="G12" s="22">
+        <v>19442</v>
+      </c>
+      <c r="H12" s="22">
+        <v>28374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24">
+      <c r="A13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="20">
+        <v>2017</v>
+      </c>
+      <c r="C13" s="20">
+        <v>16389</v>
+      </c>
+      <c r="D13" s="20">
+        <v>4744</v>
+      </c>
+      <c r="E13" s="20">
+        <v>3902</v>
+      </c>
+      <c r="F13" s="20">
+        <v>5176</v>
+      </c>
+      <c r="G13" s="20">
+        <v>5227</v>
+      </c>
+      <c r="H13" s="20">
+        <v>35438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24">
+      <c r="A14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="22">
+        <v>2017</v>
+      </c>
+      <c r="C14" s="22">
+        <v>22358</v>
+      </c>
+      <c r="D14" s="22">
+        <v>430</v>
+      </c>
+      <c r="E14" s="22">
+        <v>296</v>
+      </c>
+      <c r="F14" s="22">
+        <v>117</v>
+      </c>
+      <c r="G14" s="22">
+        <v>12</v>
+      </c>
+      <c r="H14" s="22">
+        <v>23213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>